--- a/Indices/spx.xlsx
+++ b/Indices/spx.xlsx
@@ -203,7 +203,7 @@
     <t>Alphabet Inc</t>
   </si>
   <si>
-    <t>GOOG L</t>
+    <t>GOOG</t>
   </si>
   <si>
     <t xml:space="preserve">Altria Group Inc </t>
@@ -2237,6 +2237,12 @@
     <t>PAYX</t>
   </si>
   <si>
+    <t>Paycom Software Inc</t>
+  </si>
+  <si>
+    <t>PAYC</t>
+  </si>
+  <si>
     <t>PayPal Holdings Inc</t>
   </si>
   <si>
@@ -2967,12 +2973,6 @@
   </si>
   <si>
     <t>WEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WellCare Health Plans Inc </t>
-  </si>
-  <si>
-    <t>WCG</t>
   </si>
   <si>
     <t>Wells Fargo &amp; Co (New)</t>
@@ -4034,7 +4034,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="3">
-        <v>7371</v>
+        <v>7372</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -9094,7 +9094,7 @@
         <v>509</v>
       </c>
       <c r="B246" s="3">
-        <v>8731</v>
+        <v>2836</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>18</v>
@@ -11739,10 +11739,10 @@
         <v>740</v>
       </c>
       <c r="B361" s="3">
-        <v>7389</v>
+        <v>7372</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>741</v>
@@ -11762,10 +11762,10 @@
         <v>742</v>
       </c>
       <c r="B362" s="3">
-        <v>3559</v>
+        <v>7389</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>743</v>
@@ -11774,7 +11774,7 @@
         <v>10</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>12</v>
@@ -11785,10 +11785,10 @@
         <v>744</v>
       </c>
       <c r="B363" s="3">
-        <v>6035</v>
+        <v>3559</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>745</v>
@@ -11797,7 +11797,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>12</v>
@@ -11808,7 +11808,7 @@
         <v>746</v>
       </c>
       <c r="B364" s="3">
-        <v>2086</v>
+        <v>6035</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>18</v>
@@ -11831,10 +11831,10 @@
         <v>748</v>
       </c>
       <c r="B365" s="3">
-        <v>3826</v>
+        <v>2086</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>749</v>
@@ -11854,7 +11854,7 @@
         <v>750</v>
       </c>
       <c r="B366" s="3">
-        <v>2834</v>
+        <v>3826</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>8</v>
@@ -11866,7 +11866,7 @@
         <v>10</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>12</v>
@@ -11889,7 +11889,7 @@
         <v>10</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G367" s="2" t="s">
         <v>12</v>
@@ -11900,7 +11900,7 @@
         <v>754</v>
       </c>
       <c r="B368" s="3">
-        <v>2111</v>
+        <v>2834</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>8</v>
@@ -11923,7 +11923,7 @@
         <v>756</v>
       </c>
       <c r="B369" s="3">
-        <v>2911</v>
+        <v>2111</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>8</v>
@@ -11946,7 +11946,7 @@
         <v>758</v>
       </c>
       <c r="B370" s="3">
-        <v>4911</v>
+        <v>2911</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>8</v>
@@ -11969,7 +11969,7 @@
         <v>760</v>
       </c>
       <c r="B371" s="3">
-        <v>1311</v>
+        <v>4911</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>8</v>
@@ -11992,7 +11992,7 @@
         <v>762</v>
       </c>
       <c r="B372" s="3">
-        <v>6021</v>
+        <v>1311</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>8</v>
@@ -12015,7 +12015,7 @@
         <v>764</v>
       </c>
       <c r="B373" s="3">
-        <v>2851</v>
+        <v>6021</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>8</v>
@@ -12038,7 +12038,7 @@
         <v>766</v>
       </c>
       <c r="B374" s="3">
-        <v>4911</v>
+        <v>2851</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>8</v>
@@ -12061,10 +12061,10 @@
         <v>768</v>
       </c>
       <c r="B375" s="3">
-        <v>6321</v>
+        <v>4911</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>769</v>
@@ -12084,10 +12084,10 @@
         <v>770</v>
       </c>
       <c r="B376" s="3">
-        <v>2841</v>
+        <v>6321</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>771</v>
@@ -12107,7 +12107,7 @@
         <v>772</v>
       </c>
       <c r="B377" s="3">
-        <v>6331</v>
+        <v>2841</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>8</v>
@@ -12130,7 +12130,7 @@
         <v>774</v>
       </c>
       <c r="B378" s="3">
-        <v>6798</v>
+        <v>6331</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>8</v>
@@ -12153,7 +12153,7 @@
         <v>776</v>
       </c>
       <c r="B379" s="3">
-        <v>6311</v>
+        <v>6798</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>8</v>
@@ -12176,7 +12176,7 @@
         <v>778</v>
       </c>
       <c r="B380" s="3">
-        <v>4911</v>
+        <v>6311</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>8</v>
@@ -12199,7 +12199,7 @@
         <v>780</v>
       </c>
       <c r="B381" s="3">
-        <v>6798</v>
+        <v>4911</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>8</v>
@@ -12222,7 +12222,7 @@
         <v>782</v>
       </c>
       <c r="B382" s="3">
-        <v>1531</v>
+        <v>6798</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>8</v>
@@ -12245,7 +12245,7 @@
         <v>784</v>
       </c>
       <c r="B383" s="3">
-        <v>2321</v>
+        <v>1531</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>8</v>
@@ -12268,10 +12268,10 @@
         <v>786</v>
       </c>
       <c r="B384" s="3">
-        <v>3674</v>
+        <v>2321</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>787</v>
@@ -12291,7 +12291,7 @@
         <v>788</v>
       </c>
       <c r="B385" s="3">
-        <v>3669</v>
+        <v>3674</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>18</v>
@@ -12314,10 +12314,10 @@
         <v>790</v>
       </c>
       <c r="B386" s="3">
-        <v>1731</v>
+        <v>3669</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>791</v>
@@ -12337,7 +12337,7 @@
         <v>792</v>
       </c>
       <c r="B387" s="3">
-        <v>8071</v>
+        <v>1731</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>8</v>
@@ -12360,7 +12360,7 @@
         <v>794</v>
       </c>
       <c r="B388" s="3">
-        <v>2329</v>
+        <v>8071</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>8</v>
@@ -12383,7 +12383,7 @@
         <v>796</v>
       </c>
       <c r="B389" s="3">
-        <v>6211</v>
+        <v>2329</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>8</v>
@@ -12406,7 +12406,7 @@
         <v>798</v>
       </c>
       <c r="B390" s="3">
-        <v>3812</v>
+        <v>6211</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         <v>800</v>
       </c>
       <c r="B391" s="3">
-        <v>6798</v>
+        <v>3812</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>8</v>
@@ -12455,7 +12455,7 @@
         <v>6798</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>803</v>
@@ -12475,7 +12475,7 @@
         <v>804</v>
       </c>
       <c r="B393" s="3">
-        <v>2834</v>
+        <v>6798</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>18</v>
@@ -12498,10 +12498,10 @@
         <v>806</v>
       </c>
       <c r="B394" s="3">
-        <v>6021</v>
+        <v>2834</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>807</v>
@@ -12521,7 +12521,7 @@
         <v>808</v>
       </c>
       <c r="B395" s="3">
-        <v>4953</v>
+        <v>6021</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>8</v>
@@ -12544,7 +12544,7 @@
         <v>810</v>
       </c>
       <c r="B396" s="3">
-        <v>3841</v>
+        <v>4953</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>8</v>
@@ -12567,7 +12567,7 @@
         <v>812</v>
       </c>
       <c r="B397" s="3">
-        <v>7363</v>
+        <v>3841</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>8</v>
@@ -12590,10 +12590,10 @@
         <v>814</v>
       </c>
       <c r="B398" s="3">
-        <v>4731</v>
+        <v>7363</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>815</v>
@@ -12613,10 +12613,10 @@
         <v>816</v>
       </c>
       <c r="B399" s="3">
-        <v>3829</v>
+        <v>4731</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>817</v>
@@ -12636,7 +12636,7 @@
         <v>818</v>
       </c>
       <c r="B400" s="3">
-        <v>7342</v>
+        <v>3829</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>8</v>
@@ -12659,7 +12659,7 @@
         <v>820</v>
       </c>
       <c r="B401" s="3">
-        <v>3823</v>
+        <v>7342</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>8</v>
@@ -12682,10 +12682,10 @@
         <v>822</v>
       </c>
       <c r="B402" s="3">
-        <v>5651</v>
+        <v>3823</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>823</v>
@@ -12705,10 +12705,10 @@
         <v>824</v>
       </c>
       <c r="B403" s="3">
-        <v>4489</v>
+        <v>5651</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>825</v>
@@ -12717,7 +12717,7 @@
         <v>10</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>826</v>
+        <v>11</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>12</v>
@@ -12725,22 +12725,22 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B404" s="3">
+        <v>4489</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B404" s="3">
-        <v>7323</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D404" s="2" t="s">
+      <c r="E404" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F404" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F404" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G404" s="2" t="s">
         <v>12</v>
@@ -12751,7 +12751,7 @@
         <v>829</v>
       </c>
       <c r="B405" s="3">
-        <v>7372</v>
+        <v>7323</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>8</v>
@@ -12774,10 +12774,10 @@
         <v>831</v>
       </c>
       <c r="B406" s="3">
-        <v>4899</v>
+        <v>7372</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>832</v>
@@ -12797,7 +12797,7 @@
         <v>833</v>
       </c>
       <c r="B407" s="3">
-        <v>5047</v>
+        <v>4899</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>18</v>
@@ -12820,10 +12820,10 @@
         <v>835</v>
       </c>
       <c r="B408" s="3">
-        <v>1389</v>
+        <v>5047</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>836</v>
@@ -12832,7 +12832,7 @@
         <v>10</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>837</v>
+        <v>11</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12840,22 +12840,22 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B409" s="3">
+        <v>1389</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B409" s="3">
-        <v>6211</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D409" s="2" t="s">
+      <c r="E409" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F409" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G409" s="2" t="s">
         <v>12</v>
@@ -12866,10 +12866,10 @@
         <v>840</v>
       </c>
       <c r="B410" s="3">
-        <v>3572</v>
+        <v>6211</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>841</v>
@@ -12878,7 +12878,7 @@
         <v>10</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G410" s="2" t="s">
         <v>12</v>
@@ -12889,10 +12889,10 @@
         <v>842</v>
       </c>
       <c r="B411" s="3">
-        <v>2671</v>
+        <v>3572</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>843</v>
@@ -12901,7 +12901,7 @@
         <v>10</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G411" s="2" t="s">
         <v>12</v>
@@ -12912,7 +12912,7 @@
         <v>844</v>
       </c>
       <c r="B412" s="3">
-        <v>4932</v>
+        <v>2671</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>8</v>
@@ -12935,7 +12935,7 @@
         <v>846</v>
       </c>
       <c r="B413" s="3">
-        <v>7372</v>
+        <v>4932</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>8</v>
@@ -12958,7 +12958,7 @@
         <v>848</v>
       </c>
       <c r="B414" s="3">
-        <v>5231</v>
+        <v>7372</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>8</v>
@@ -12981,7 +12981,7 @@
         <v>850</v>
       </c>
       <c r="B415" s="3">
-        <v>6798</v>
+        <v>5231</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>8</v>
@@ -13004,10 +13004,10 @@
         <v>852</v>
       </c>
       <c r="B416" s="3">
-        <v>3674</v>
+        <v>6798</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>853</v>
@@ -13027,10 +13027,10 @@
         <v>854</v>
       </c>
       <c r="B417" s="3">
-        <v>6798</v>
+        <v>3674</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>855</v>
@@ -13050,7 +13050,7 @@
         <v>856</v>
       </c>
       <c r="B418" s="3">
-        <v>3639</v>
+        <v>6798</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>8</v>
@@ -13073,7 +13073,7 @@
         <v>858</v>
       </c>
       <c r="B419" s="3">
-        <v>2033</v>
+        <v>3639</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>8</v>
@@ -13096,7 +13096,7 @@
         <v>860</v>
       </c>
       <c r="B420" s="3">
-        <v>3429</v>
+        <v>2033</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>8</v>
@@ -13119,7 +13119,7 @@
         <v>862</v>
       </c>
       <c r="B421" s="3">
-        <v>4911</v>
+        <v>3429</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>8</v>
@@ -13142,7 +13142,7 @@
         <v>864</v>
       </c>
       <c r="B422" s="3">
-        <v>4512</v>
+        <v>4911</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>8</v>
@@ -13165,7 +13165,7 @@
         <v>866</v>
       </c>
       <c r="B423" s="3">
-        <v>3423</v>
+        <v>4512</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>8</v>
@@ -13188,10 +13188,10 @@
         <v>868</v>
       </c>
       <c r="B424" s="3">
-        <v>2095</v>
+        <v>3423</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>869</v>
@@ -13211,10 +13211,10 @@
         <v>870</v>
       </c>
       <c r="B425" s="3">
-        <v>6022</v>
+        <v>2095</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>871</v>
@@ -13234,7 +13234,7 @@
         <v>872</v>
       </c>
       <c r="B426" s="3">
-        <v>3842</v>
+        <v>6022</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>8</v>
@@ -13246,7 +13246,7 @@
         <v>10</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>12</v>
@@ -13257,7 +13257,7 @@
         <v>874</v>
       </c>
       <c r="B427" s="3">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>8</v>
@@ -13269,7 +13269,7 @@
         <v>10</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G427" s="2" t="s">
         <v>12</v>
@@ -13280,10 +13280,10 @@
         <v>876</v>
       </c>
       <c r="B428" s="3">
-        <v>6022</v>
+        <v>3841</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>877</v>
@@ -13303,10 +13303,10 @@
         <v>878</v>
       </c>
       <c r="B429" s="3">
-        <v>6141</v>
+        <v>6022</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>879</v>
@@ -13326,10 +13326,10 @@
         <v>880</v>
       </c>
       <c r="B430" s="3">
-        <v>7372</v>
+        <v>6141</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>881</v>
@@ -13349,10 +13349,10 @@
         <v>882</v>
       </c>
       <c r="B431" s="3">
-        <v>5141</v>
+        <v>7372</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>883</v>
@@ -13372,10 +13372,10 @@
         <v>884</v>
       </c>
       <c r="B432" s="3">
-        <v>6282</v>
+        <v>5141</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>885</v>
@@ -13395,7 +13395,7 @@
         <v>886</v>
       </c>
       <c r="B433" s="3">
-        <v>4812</v>
+        <v>6282</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>18</v>
@@ -13418,7 +13418,7 @@
         <v>888</v>
       </c>
       <c r="B434" s="3">
-        <v>7372</v>
+        <v>4812</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>18</v>
@@ -13441,10 +13441,10 @@
         <v>890</v>
       </c>
       <c r="B435" s="3">
-        <v>3199</v>
+        <v>7372</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>891</v>
@@ -13464,7 +13464,7 @@
         <v>892</v>
       </c>
       <c r="B436" s="3">
-        <v>5331</v>
+        <v>3199</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>8</v>
@@ -13487,7 +13487,7 @@
         <v>894</v>
       </c>
       <c r="B437" s="3">
-        <v>5065</v>
+        <v>5331</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>8</v>
@@ -13499,7 +13499,7 @@
         <v>10</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="G437" s="2" t="s">
         <v>12</v>
@@ -13510,7 +13510,7 @@
         <v>896</v>
       </c>
       <c r="B438" s="3">
-        <v>3533</v>
+        <v>5065</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>8</v>
@@ -13522,7 +13522,7 @@
         <v>10</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13533,7 +13533,7 @@
         <v>898</v>
       </c>
       <c r="B439" s="3">
-        <v>3841</v>
+        <v>3533</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>8</v>
@@ -13545,7 +13545,7 @@
         <v>10</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G439" s="2" t="s">
         <v>12</v>
@@ -13556,10 +13556,10 @@
         <v>900</v>
       </c>
       <c r="B440" s="3">
-        <v>3674</v>
+        <v>3841</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>901</v>
@@ -13579,10 +13579,10 @@
         <v>902</v>
       </c>
       <c r="B441" s="3">
-        <v>3721</v>
+        <v>3674</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>903</v>
@@ -13602,7 +13602,7 @@
         <v>904</v>
       </c>
       <c r="B442" s="3">
-        <v>5651</v>
+        <v>3721</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>8</v>
@@ -13625,7 +13625,7 @@
         <v>906</v>
       </c>
       <c r="B443" s="3">
-        <v>3829</v>
+        <v>5651</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>8</v>
@@ -13648,7 +13648,7 @@
         <v>908</v>
       </c>
       <c r="B444" s="3">
-        <v>5944</v>
+        <v>3829</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>8</v>
@@ -13671,7 +13671,7 @@
         <v>910</v>
       </c>
       <c r="B445" s="3">
-        <v>5651</v>
+        <v>5944</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>8</v>
@@ -13694,10 +13694,10 @@
         <v>912</v>
       </c>
       <c r="B446" s="3">
-        <v>3524</v>
+        <v>5651</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>913</v>
@@ -13717,10 +13717,10 @@
         <v>914</v>
       </c>
       <c r="B447" s="3">
-        <v>3728</v>
+        <v>3524</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>915</v>
@@ -13740,7 +13740,7 @@
         <v>916</v>
       </c>
       <c r="B448" s="3">
-        <v>6331</v>
+        <v>3728</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>8</v>
@@ -13763,7 +13763,7 @@
         <v>918</v>
       </c>
       <c r="B449" s="3">
-        <v>6021</v>
+        <v>6331</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>8</v>
@@ -13786,7 +13786,7 @@
         <v>920</v>
       </c>
       <c r="B450" s="3">
-        <v>7371</v>
+        <v>6021</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>8</v>
@@ -13809,7 +13809,7 @@
         <v>922</v>
       </c>
       <c r="B451" s="3">
-        <v>2015</v>
+        <v>7371</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>8</v>
@@ -13832,7 +13832,7 @@
         <v>924</v>
       </c>
       <c r="B452" s="3">
-        <v>6798</v>
+        <v>2015</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>8</v>
@@ -13855,10 +13855,10 @@
         <v>926</v>
       </c>
       <c r="B453" s="3">
-        <v>5699</v>
+        <v>6798</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>927</v>
@@ -13878,10 +13878,10 @@
         <v>928</v>
       </c>
       <c r="B454" s="3">
-        <v>5136</v>
+        <v>5699</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>929</v>
@@ -13901,7 +13901,7 @@
         <v>930</v>
       </c>
       <c r="B455" s="3">
-        <v>4011</v>
+        <v>5136</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>8</v>
@@ -13924,10 +13924,10 @@
         <v>932</v>
       </c>
       <c r="B456" s="3">
-        <v>4512</v>
+        <v>4011</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>933</v>
@@ -13947,10 +13947,10 @@
         <v>934</v>
       </c>
       <c r="B457" s="3">
-        <v>4215</v>
+        <v>4512</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>935</v>
@@ -13970,7 +13970,7 @@
         <v>936</v>
       </c>
       <c r="B458" s="3">
-        <v>7359</v>
+        <v>4215</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>8</v>
@@ -13993,7 +13993,7 @@
         <v>938</v>
       </c>
       <c r="B459" s="3">
-        <v>3724</v>
+        <v>7359</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>8</v>
@@ -14016,7 +14016,7 @@
         <v>940</v>
       </c>
       <c r="B460" s="3">
-        <v>6324</v>
+        <v>3724</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>8</v>
@@ -14039,7 +14039,7 @@
         <v>942</v>
       </c>
       <c r="B461" s="3">
-        <v>8062</v>
+        <v>6324</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>8</v>
@@ -14062,7 +14062,7 @@
         <v>944</v>
       </c>
       <c r="B462" s="3">
-        <v>6321</v>
+        <v>8062</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>8</v>
@@ -14085,7 +14085,7 @@
         <v>946</v>
       </c>
       <c r="B463" s="3">
-        <v>6021</v>
+        <v>6321</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>8</v>
@@ -14108,7 +14108,7 @@
         <v>948</v>
       </c>
       <c r="B464" s="3">
-        <v>2911</v>
+        <v>6021</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>8</v>
@@ -14131,7 +14131,7 @@
         <v>950</v>
       </c>
       <c r="B465" s="3">
-        <v>3845</v>
+        <v>2911</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>8</v>
@@ -14154,7 +14154,7 @@
         <v>952</v>
       </c>
       <c r="B466" s="3">
-        <v>6798</v>
+        <v>3845</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>8</v>
@@ -14177,10 +14177,10 @@
         <v>954</v>
       </c>
       <c r="B467" s="3">
-        <v>7371</v>
+        <v>6798</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>955</v>
@@ -14200,7 +14200,7 @@
         <v>956</v>
       </c>
       <c r="B468" s="3">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>18</v>
@@ -14223,10 +14223,10 @@
         <v>958</v>
       </c>
       <c r="B469" s="3">
-        <v>4813</v>
+        <v>7374</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>959</v>
@@ -14246,10 +14246,10 @@
         <v>960</v>
       </c>
       <c r="B470" s="3">
-        <v>2834</v>
+        <v>4813</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>961</v>
@@ -14269,10 +14269,10 @@
         <v>962</v>
       </c>
       <c r="B471" s="3">
-        <v>2329</v>
+        <v>2834</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>963</v>
@@ -14292,10 +14292,10 @@
         <v>964</v>
       </c>
       <c r="B472" s="3">
-        <v>4833</v>
+        <v>2329</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>965</v>
@@ -14315,10 +14315,10 @@
         <v>966</v>
       </c>
       <c r="B473" s="3">
-        <v>6159</v>
+        <v>4833</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>967</v>
@@ -14338,7 +14338,7 @@
         <v>968</v>
       </c>
       <c r="B474" s="3">
-        <v>6798</v>
+        <v>6159</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>8</v>
@@ -14361,7 +14361,7 @@
         <v>970</v>
       </c>
       <c r="B475" s="3">
-        <v>1429</v>
+        <v>6798</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>8</v>
@@ -14384,7 +14384,7 @@
         <v>972</v>
       </c>
       <c r="B476" s="3">
-        <v>3743</v>
+        <v>1429</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>8</v>
@@ -14407,10 +14407,10 @@
         <v>974</v>
       </c>
       <c r="B477" s="3">
-        <v>5912</v>
+        <v>3743</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>975</v>
@@ -14430,10 +14430,10 @@
         <v>976</v>
       </c>
       <c r="B478" s="3">
-        <v>5411</v>
+        <v>5912</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>977</v>
@@ -14453,7 +14453,7 @@
         <v>978</v>
       </c>
       <c r="B479" s="3">
-        <v>4953</v>
+        <v>5411</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>8</v>
@@ -14476,7 +14476,7 @@
         <v>980</v>
       </c>
       <c r="B480" s="3">
-        <v>3826</v>
+        <v>4953</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>8</v>
@@ -14499,7 +14499,7 @@
         <v>982</v>
       </c>
       <c r="B481" s="3">
-        <v>4931</v>
+        <v>3826</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>8</v>
@@ -14522,7 +14522,7 @@
         <v>984</v>
       </c>
       <c r="B482" s="3">
-        <v>6324</v>
+        <v>4931</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>8</v>
